--- a/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5544265731079419</v>
+        <v>0.559495404736656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5476828040235934</v>
+        <v>0.5568001569194891</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008711722498399712</v>
+        <v>0.00405565355952045</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1287370044271999</v>
+        <v>0.1295052223802285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1278714766949319</v>
+        <v>0.1294192102879441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002648720649218649</v>
+        <v>0.004001621551600805</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5588425825955518</v>
+        <v>0.5470173985086992</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5651063254745445</v>
+        <v>0.5509574228429827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02673560575537191</v>
+        <v>0.01782357351680892</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2092665965876931</v>
+        <v>0.2094286507275683</v>
       </c>
       <c r="L2" t="n">
-        <v>0.208524005729964</v>
+        <v>0.2096017941293195</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005198095802774987</v>
+        <v>0.006519265318466372</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6740400020672903</v>
+        <v>0.728369258662369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7005272733525588</v>
+        <v>0.7183479033264362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01901846803782826</v>
+        <v>0.02005365872836547</v>
       </c>
       <c r="E3" t="n">
-        <v>0.170817946098845</v>
+        <v>0.1899484786623894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1753080301495484</v>
+        <v>0.1861612323797127</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005899786114080439</v>
+        <v>0.006637536593899573</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5133412042502952</v>
+        <v>0.4432849364791289</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4677685950413223</v>
+        <v>0.4537188466003125</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03770210304433266</v>
+        <v>0.02683964678359458</v>
       </c>
       <c r="K3" t="n">
-        <v>0.256337696026412</v>
+        <v>0.26594079618918</v>
       </c>
       <c r="L3" t="n">
-        <v>0.254613020257873</v>
+        <v>0.2635765382983061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008025388681572931</v>
+        <v>0.004460804045510409</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6923613623443072</v>
+        <v>0.6949284850926672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6897771914658899</v>
+        <v>0.697371016033941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003716357154454608</v>
+        <v>0.002406009751978343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1811076001995676</v>
+        <v>0.184320471860408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1796657193328842</v>
+        <v>0.1856903554697311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005190200074419958</v>
+        <v>0.002114266392673494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5104355716878403</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5145218417945691</v>
+        <v>0.5099853032397219</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01574104681227764</v>
+        <v>0.008764880255527858</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2678802041694852</v>
+        <v>0.2708396027685826</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2663270588761657</v>
+        <v>0.2722446221612094</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00774371048098116</v>
+        <v>0.003325883252767455</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.549305198147195</v>
+        <v>0.5748650965757224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5484559958826557</v>
+        <v>0.5713096943741892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009089611672701768</v>
+        <v>0.005016030705912458</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1537191787888167</v>
+        <v>0.15908354047336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1535358340030384</v>
+        <v>0.1582424383069317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002901266572878311</v>
+        <v>0.00200044433203362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7289628180039139</v>
+        <v>0.694012258368694</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7292126660541728</v>
+        <v>0.6963744805209237</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01019933204370221</v>
+        <v>0.0151930047064129</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2538979296242651</v>
+        <v>0.2588359416212414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2536491614620416</v>
+        <v>0.2578743907586246</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00421123642475572</v>
+        <v>0.003469754947365881</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6545227004102065</v>
+        <v>0.6521709448388858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6541063288862848</v>
+        <v>0.6499849102245755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01228419437425764</v>
+        <v>0.009858250275183143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1515490854796566</v>
+        <v>0.1553133514986376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1506845183187526</v>
+        <v>0.1526004860382505</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00846050549993317</v>
+        <v>0.007956936381395335</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6574898785425102</v>
+        <v>0.6576923076923077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03678645082299774</v>
+        <v>0.03105635267413282</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2463218565144851</v>
+        <v>0.251285819250551</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2447962986610868</v>
+        <v>0.2468743341030801</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01337719840039207</v>
+        <v>0.01251196870799215</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6543946780881214</v>
+        <v>0.6533669141039237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6528910581188445</v>
+        <v>0.6535218218788078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005419459963919388</v>
+        <v>0.006531936293056986</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1831519451626481</v>
+        <v>0.1845742827273783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1819209532963716</v>
+        <v>0.1837015862167784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002490028379136142</v>
+        <v>0.003998684606549868</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6577413085726624</v>
+        <v>0.6582435791217895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.654718185651944</v>
+        <v>0.6528628283933533</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008291560222907149</v>
+        <v>0.02015440535856064</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2865205530994262</v>
+        <v>0.2883062687108773</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2847151842741525</v>
+        <v>0.2866986085265461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003374238776576775</v>
+        <v>0.006318268039029246</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6204492641363284</v>
+        <v>0.6244918699186992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6194240403273923</v>
+        <v>0.6227688553180151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005491686573766212</v>
+        <v>0.007019397046553611</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1723950106214935</v>
+        <v>0.1760634616408454</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1719988762665643</v>
+        <v>0.1751868115384603</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001923439853873967</v>
+        <v>0.00412941275685035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6834377024400777</v>
+        <v>0.6849627174813587</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6834378298279826</v>
+        <v>0.6839311728295734</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004164968624940047</v>
+        <v>0.01758812018711054</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2753371030882993</v>
+        <v>0.2801236711702173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2748227570696414</v>
+        <v>0.2789116588130228</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002380648088307619</v>
+        <v>0.006374418881243763</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +803,771 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6553743108397503</v>
+        <v>0.6542727112053729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6540757162713866</v>
+        <v>0.6541846100093334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005547646023503154</v>
+        <v>0.006889323725786831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1837411112450283</v>
+        <v>0.1849047813173374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1823797064478146</v>
+        <v>0.184179100251712</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002482977840841578</v>
+        <v>0.004113617393837398</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6583891168214209</v>
+        <v>0.6576222038111019</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6540700044967277</v>
+        <v>0.6536905566461773</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006936009835765858</v>
+        <v>0.01968521256459426</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2873027090694935</v>
+        <v>0.2886494840674576</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2852151263830515</v>
+        <v>0.2873588326555908</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003229477368729776</v>
+        <v>0.006376467041934872</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>log_class_renda_baixa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.652402946902317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6514106911026958</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008008342349279321</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2043074491207271</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2041090379746033</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.005588311132144776</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6628205128205128</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6644230769230769</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02198727293095192</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3123395257513971</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3122486227877228</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.008330517422076727</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>log_class_renda_alta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6480373635600336</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6473026939469141</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.004554459465924566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1496846531184303</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.147416602177016</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003626877130760779</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6252927400468384</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6135771981272831</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01757681125159805</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2415469863168608</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2377110241352703</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.005887636048431171</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>log_class_sexo_mulher</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6723695466210436</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6694610778443113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0055891860475345</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2386741745584848</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.235562991149551</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.006243731976070258</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5215324384787472</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5170637184045005</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01470489106942357</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3274802458296751</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3236491862605247</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.008421102391038786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>log_class_sexo_homem</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6846554560409431</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6831923896686143</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01003855871647787</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09964564138908576</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09818174343012499</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00537027959838229</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5615015974440895</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5535043824701196</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02002286935525236</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1692548453111833</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1667643859618753</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.008593134456448584</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade_less40</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6190184585775522</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6178372466179537</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.005630754865257004</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1546522705620832</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1527481880092024</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.003632626217280988</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.668649885583524</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6594965675057207</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01844342487836146</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2512035763411279</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2480359961338293</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.005915532316146657</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade_more40</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6774841532006071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6771714102400612</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.003380002117290194</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2141966067864272</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2137385209842982</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.002863447585290082</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6496405599697314</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6481246777796872</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.007088169860446056</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3221690590111643</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3214589203074165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.003906183784969683</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6010397612400116</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6000777570744804</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01465082962028628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1509643094657504</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1469601408816154</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.007603126707600681</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6844221105527638</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6603015075376886</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.03618090452261308</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2473665092626226</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.240364746636882</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01213242441430416</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6436072144288577</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6396793587174348</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01280559554162139</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1615384615384615</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1592902599838473</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00374295479965573</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6529411764705882</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6495798319327731</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.04078877680508099</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2557370274758226</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.00720491981915987</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6743341404358354</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6705300789729182</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.006707187997418417</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2074748442740776</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2039679493233955</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.003891008711866877</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6540785498489426</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6465208690680389</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.006815718750144035</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3150236449618043</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3100849102825873</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.004858593261738559</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>log_class_idade4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6910869164052408</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6927470426065591</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007270037544911541</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2340760157273919</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2334489148980021</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.005038003038170834</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6770280515542078</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6671621154510887</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.009448495308141057</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3478768991040125</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3458368605012789</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.005903464400177893</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_norte</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6539333117513758</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6542566909486991</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01912699994772018</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1654306902452938</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1658308891784116</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.00741084696087165</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6736353077816493</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6735784379620917</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03404136791291891</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2656285779711473</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2659764276315795</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0102762898793549</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6479566094853683</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6498487435193547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.002559488750802853</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1898775510204082</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1901891303227089</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00191615591092587</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6522714526079642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6489047304314984</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01275048444830379</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2941325240263025</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2941545257215378</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.003502732915440501</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_sudeste</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.678353168221293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6779251111321833</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.006396409036762564</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2029778182923124</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.200345545732071</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.003930029245180822</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6392344497607656</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6267942583732058</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02439722255307554</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3081180811808119</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.303586542809283</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.006714992277595948</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_sul</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6673996701484332</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6628183304626935</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.006858605377795158</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1773700305810398</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1723814879959101</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01260397400419053</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6338797814207651</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6192994161801501</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0509533746229958</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2771804062126643</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2696890746535694</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.02025320124223231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>log_class_r_centro_oeste</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6436438305021467</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6417737990718675</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01117268169340383</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1887682869277961</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1822298575919777</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01322316380194962</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6457627118644067</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04654078039913892</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2953119232189</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2842410926808188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02055249904707023</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>dt_exp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6180628911913099</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.006190537849057685</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.171962521641715</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.17183852029296</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.003326148097604932</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6994614747307374</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6756412319376952</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01674249521434987</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2760565682988638</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2739754016017139</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.005212347611898835</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>rf_exp</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6359800282785436</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6458335552226714</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.009488320005098774</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1791085890584541</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1801583509264083</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.003369596705106547</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6733637116818558</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6532698269666055</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01976858309836506</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2829540014796118</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2823795616756745</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.004879076337140581</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>test_f1_std</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>train_auc</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>test_auc</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>test_auc_std</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +552,15 @@
       <c r="M2" t="n">
         <v>0.006519265318466372</v>
       </c>
+      <c r="N2" t="n">
+        <v>0.554001329583759</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5542277863004321</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.009658646310421177</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -580,6 +604,15 @@
       <c r="M3" t="n">
         <v>0.004460804045510409</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.6036246798869699</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.6025536327649859</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.003662502091082844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -623,6 +656,15 @@
       <c r="M4" t="n">
         <v>0.003325883252767455</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.6141997708881078</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.615376682643723</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.003747695069745473</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -631,40 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5748650965757224</v>
+        <v>0.5705280145241818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5713096943741892</v>
+        <v>0.5655858462293255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005016030705912458</v>
+        <v>0.005618624457398811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15908354047336</v>
+        <v>0.1580945252352438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1582424383069317</v>
+        <v>0.1570082538926859</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00200044433203362</v>
+        <v>0.001923892687568681</v>
       </c>
       <c r="H5" t="n">
-        <v>0.694012258368694</v>
+        <v>0.697076850542197</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6963744805209237</v>
+        <v>0.7006130964286508</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0151930047064129</v>
+        <v>0.01118000345013962</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2588359416212414</v>
+        <v>0.2577355530375665</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2578743907586246</v>
+        <v>0.2565199724604722</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003469754947365881</v>
+        <v>0.003005415354437959</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6262236522871365</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6250129634682242</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.004641959950197983</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6521709448388858</v>
+        <v>0.6580212985228444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6499849102245755</v>
+        <v>0.6589942443926067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009858250275183143</v>
+        <v>0.009137454338725903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1553133514986376</v>
+        <v>0.192947641581438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1526004860382505</v>
+        <v>0.1928320153579969</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007956936381395335</v>
+        <v>0.007182522813323696</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6576923076923077</v>
+        <v>0.6482051282051282</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.6446153846153846</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03105635267413282</v>
+        <v>0.02701936384065535</v>
       </c>
       <c r="K6" t="n">
-        <v>0.251285819250551</v>
+        <v>0.2973767792024468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2468743341030801</v>
+        <v>0.2968212268118722</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01251196870799215</v>
+        <v>0.01088453327800463</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6537300454121799</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6527084005824921</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01355818519854207</v>
       </c>
     </row>
     <row r="7">
@@ -717,857 +777,1089 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6533669141039237</v>
+        <v>0.6509809119830329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6535218218788078</v>
+        <v>0.6525497122825425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006531936293056986</v>
+        <v>0.007844253927179221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1845742827273783</v>
+        <v>0.1833506523496132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1837015862167784</v>
+        <v>0.1840004803508549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003998684606549868</v>
+        <v>0.005031212745780076</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6582435791217895</v>
+        <v>0.6578293289146645</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6528628283933533</v>
+        <v>0.6570049024340532</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02015440535856064</v>
+        <v>0.01916047532542284</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2883062687108773</v>
+        <v>0.2867720090293454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2866986085265461</v>
+        <v>0.2874622341511076</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006318268039029246</v>
+        <v>0.007525341698532468</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6539962749034693</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6545114661250061</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.009683012209825212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>log_all_smote</t>
+          <t>log_all_medianimp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6244918699186992</v>
+        <v>0.6527704135737009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6227688553180151</v>
+        <v>0.6542508448919578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007019397046553611</v>
+        <v>0.007679942723366113</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1760634616408454</v>
+        <v>0.1843219110569954</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1751868115384603</v>
+        <v>0.1848195455711642</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00412941275685035</v>
+        <v>0.004762163878949726</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6849627174813587</v>
+        <v>0.6584507042253521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6839311728295734</v>
+        <v>0.6570044733369806</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01758812018711054</v>
+        <v>0.01941340376229091</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2801236711702173</v>
+        <v>0.2880181200453001</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2789116588130228</v>
+        <v>0.2884585794899029</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006374418881243763</v>
+        <v>0.007160435884993719</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6552714496495243</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6554633893506778</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.009307102349537832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>log_best_grid</t>
+          <t>log_all_smote</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6542727112053729</v>
+        <v>0.623869231650063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6541846100093334</v>
+        <v>0.6210923472412531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006889323725786831</v>
+        <v>0.004959393685151945</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1849047813173374</v>
+        <v>0.1827920071413857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.184179100251712</v>
+        <v>0.1813444306194163</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004113617393837398</v>
+        <v>0.004726703107562422</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6576222038111019</v>
+        <v>0.6825641025641026</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6536905566461773</v>
+        <v>0.6812820512820512</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01968521256459426</v>
+        <v>0.02352275885370198</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2886494840674576</v>
+        <v>0.2883605047933706</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2873588326555908</v>
+        <v>0.2864307013666449</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006376467041934872</v>
+        <v>0.007797580953615518</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6495283776548278</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.6474050588053742</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01103944836242542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>log_class_renda_baixa</t>
+          <t>log_best_grid</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.652402946902317</v>
+        <v>0.6576205198671705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6514106911026958</v>
+        <v>0.6585648263957221</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008008342349279321</v>
+        <v>0.00931600296780565</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2043074491207271</v>
+        <v>0.1925541653951785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2041090379746033</v>
+        <v>0.1930920835597753</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005588311132144776</v>
+        <v>0.006998837338783589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6628205128205128</v>
+        <v>0.6471794871794871</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6644230769230769</v>
+        <v>0.6471794871794871</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02198727293095192</v>
+        <v>0.02567177643237707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3123395257513971</v>
+        <v>0.2968015051740358</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3122486227877228</v>
+        <v>0.2974004597454124</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008330517422076727</v>
+        <v>0.01049100981396637</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6530561008983282</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6535876340714235</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.01299810233440876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>log_class_renda_alta</t>
+          <t>log_class_renda_baixa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6480373635600336</v>
+        <v>0.6526229675835975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6473026939469141</v>
+        <v>0.6544634869193334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004554459465924566</v>
+        <v>0.006514117558773459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1496846531184303</v>
+        <v>0.2166556510244547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.147416602177016</v>
+        <v>0.2165040600081072</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003626877130760779</v>
+        <v>0.005721864352024659</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6252927400468384</v>
+        <v>0.6537694455524531</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6135771981272831</v>
+        <v>0.6473960445642579</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01757681125159805</v>
+        <v>0.02005208342647989</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2415469863168608</v>
+        <v>0.3254567116759333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2377110241352703</v>
+        <v>0.3244666476949908</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005887636048431171</v>
+        <v>0.008500307871313825</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6531119235269157</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6514503003612434</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0100019875083061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>log_class_sexo_mulher</t>
+          <t>log_class_renda_alta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6723695466210436</v>
+        <v>0.6517497072980356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6694610778443113</v>
+        <v>0.6516193408127965</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0055891860475345</v>
+        <v>0.008313923935945294</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2386741745584848</v>
+        <v>0.1516270888302551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.235562991149551</v>
+        <v>0.149986572257851</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006243731976070258</v>
+        <v>0.004452123305573409</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5215324384787472</v>
+        <v>0.618808327351041</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5170637184045005</v>
+        <v>0.609468554188907</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01470489106942357</v>
+        <v>0.02375311101060358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3274802458296751</v>
+        <v>0.2435716304040689</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3236491862605247</v>
+        <v>0.2406970908421727</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008421102391038786</v>
+        <v>0.007095788482518461</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6369200781308527</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6326438296858005</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.01011119788875779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>log_class_sexo_homem</t>
+          <t>log_class_sexo_mulher</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6846554560409431</v>
+        <v>0.6729726857264321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6831923896686143</v>
+        <v>0.6717503727072398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01003855871647787</v>
+        <v>0.008274854419646793</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09964564138908576</v>
+        <v>0.2462968799243618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09818174343012499</v>
+        <v>0.2434975416214934</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00537027959838229</v>
+        <v>0.007001958093963924</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5615015974440895</v>
+        <v>0.532719836400818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5535043824701196</v>
+        <v>0.5241989406422428</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02002286935525236</v>
+        <v>0.01422851151156733</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1692548453111833</v>
+        <v>0.3368534482758621</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1667643859618753</v>
+        <v>0.3324731088825469</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008593134456448584</v>
+        <v>0.008345326962717328</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6157996059364956</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6116025501557958</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.007647460391537776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade_less40</t>
+          <t>log_class_sexo_homem</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6190184585775522</v>
+        <v>0.693123991560134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6178372466179537</v>
+        <v>0.690579099285031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005630754865257004</v>
+        <v>0.008403580498938074</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1546522705620832</v>
+        <v>0.1102840352595495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1527481880092024</v>
+        <v>0.1084256212457387</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003632626217280988</v>
+        <v>0.004989589786120349</v>
       </c>
       <c r="H14" t="n">
-        <v>0.668649885583524</v>
+        <v>0.582815734989648</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6594965675057207</v>
+        <v>0.5755515196837775</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01844342487836146</v>
+        <v>0.018329957014655</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2512035763411279</v>
+        <v>0.1854719156646352</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2480359961338293</v>
+        <v>0.1824579343418082</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005915532316146657</v>
+        <v>0.007817390832300146</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6414870858734878</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6367329797632866</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.01124160225029512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade_more40</t>
+          <t>log_class_idade_less40</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6774841532006071</v>
+        <v>0.6277602523659306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6771714102400612</v>
+        <v>0.6279451183785946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003380002117290194</v>
+        <v>0.008866515267376768</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2141966067864272</v>
+        <v>0.1588308072997216</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2137385209842982</v>
+        <v>0.1584967090969248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002863447585290082</v>
+        <v>0.004826596462152423</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6496405599697314</v>
+        <v>0.6394769613947696</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6481246777796872</v>
+        <v>0.6369884483659372</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007088169860446056</v>
+        <v>0.0246984255095283</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3221690590111643</v>
+        <v>0.2544598612487611</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3214589203074165</v>
+        <v>0.2538026854790294</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003906183784969683</v>
+        <v>0.007701399421340371</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6329724618799959</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6319684591395671</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01097865351134587</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade1</t>
+          <t>log_class_idade_more40</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6010397612400116</v>
+        <v>0.6766320277111644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6000777570744804</v>
+        <v>0.6763655742073007</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01465082962028628</v>
+        <v>0.004191373749477387</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1509643094657504</v>
+        <v>0.2201957295373665</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1469601408816154</v>
+        <v>0.2196214342081892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007603126707600681</v>
+        <v>0.002329432194407369</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6844221105527638</v>
+        <v>0.6473408892763731</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6603015075376886</v>
+        <v>0.6451674896062258</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03618090452261308</v>
+        <v>0.01315371988609503</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2473665092626226</v>
+        <v>0.3286125248948882</v>
       </c>
       <c r="L16" t="n">
-        <v>0.240364746636882</v>
+        <v>0.3276722340697888</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01213242441430416</v>
+        <v>0.003700727538545691</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6640262214580518</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.662939576392806</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.004809073592147679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade2</t>
+          <t>log_class_idade1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6436072144288577</v>
+        <v>0.6023591494645352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6396793587174348</v>
+        <v>0.5995645186937729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01280559554162139</v>
+        <v>0.01786993409240115</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1615384615384615</v>
+        <v>0.1564748201438849</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1592902599838473</v>
+        <v>0.1539199920922654</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00374295479965573</v>
+        <v>0.003630231585393945</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6529411764705882</v>
+        <v>0.6671779141104295</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6495798319327731</v>
+        <v>0.6578978273634761</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04078877680508099</v>
+        <v>0.04593905605688789</v>
       </c>
       <c r="K17" t="n">
-        <v>0.259</v>
+        <v>0.2534965034965035</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2557370274758226</v>
+        <v>0.2493361922201726</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00720491981915987</v>
+        <v>0.007258119685379448</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6311196080654029</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6254400672430388</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.01263783941814012</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade3</t>
+          <t>log_class_idade2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6743341404358354</v>
+        <v>0.6515837104072398</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6705300789729182</v>
+        <v>0.6482933976535805</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006707187997418417</v>
+        <v>0.01394664826715404</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2074748442740776</v>
+        <v>0.1654755360087961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2039679493233955</v>
+        <v>0.1649410464277658</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003891008711866877</v>
+        <v>0.01004005816482761</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6540785498489426</v>
+        <v>0.6310272536687631</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6465208690680389</v>
+        <v>0.6372333976302011</v>
       </c>
       <c r="J18" t="n">
-        <v>0.006815718750144035</v>
+        <v>0.06033643246264446</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3150236449618043</v>
+        <v>0.2621951219512195</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3100849102825873</v>
+        <v>0.2619159071144459</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004858593261738559</v>
+        <v>0.01704022430289946</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6424235470168217</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6433601423726832</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.02473403105224569</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>log_class_idade4</t>
+          <t>log_class_idade3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6910869164052408</v>
+        <v>0.6685059864653826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6927470426065591</v>
+        <v>0.6691306611140031</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007270037544911541</v>
+        <v>0.008188561000410493</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2340760157273919</v>
+        <v>0.2114949037372593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2334489148980021</v>
+        <v>0.2098808599808535</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005038003038170834</v>
+        <v>0.008205717396025561</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6770280515542078</v>
+        <v>0.6518324607329843</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6671621154510887</v>
+        <v>0.6413556104044048</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009448495308141057</v>
+        <v>0.03011166004971417</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3478768991040125</v>
+        <v>0.3193672509619496</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3458368605012789</v>
+        <v>0.316220428482809</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005903464400177893</v>
+        <v>0.01245410689056186</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6612986632781839</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6571247926604887</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.01451690972654508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>log_class_r_norte</t>
+          <t>log_class_idade4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6539333117513758</v>
+        <v>0.6919213973799127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6542566909486991</v>
+        <v>0.6907205240174672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01912699994772018</v>
+        <v>0.009937496548231679</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1654306902452938</v>
+        <v>0.237781954887218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1658308891784116</v>
+        <v>0.2352815518453491</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00741084696087165</v>
+        <v>0.009105000645085687</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6736353077816493</v>
+        <v>0.6611498257839721</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6735784379620917</v>
+        <v>0.6515929371558762</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03404136791291891</v>
+        <v>0.02182475297086972</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2656285779711473</v>
+        <v>0.3497695852534562</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2659764276315795</v>
+        <v>0.3456764403240291</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0102762898793549</v>
+        <v>0.01229230006298717</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6787401650138032</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6739623217729852</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01278244560969906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>log_class_r_nordeste</t>
+          <t>log_class_r_norte</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6479566094853683</v>
+        <v>0.6534411719822982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6498487435193547</v>
+        <v>0.6531381557112164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002559488750802853</v>
+        <v>0.01795239729905977</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1898775510204082</v>
+        <v>0.1707810602994739</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1901891303227089</v>
+        <v>0.1695446669069019</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00191615591092587</v>
+        <v>0.01246294897386758</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6522714526079642</v>
+        <v>0.65527950310559</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6489047304314984</v>
+        <v>0.6475654069767443</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01275048444830379</v>
+        <v>0.04682880613518705</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2941325240263025</v>
+        <v>0.2709470304975923</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2941545257215378</v>
+        <v>0.2685948061190908</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003502732915440501</v>
+        <v>0.01861946830131424</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6542601610975572</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6506598946610712</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.02371696367589503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>log_class_r_sudeste</t>
+          <t>log_class_r_nordeste</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.678353168221293</v>
+        <v>0.6596152244524027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6779251111321833</v>
+        <v>0.6546998007005824</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006396409036762564</v>
+        <v>0.008131786073215914</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2029778182923124</v>
+        <v>0.2022017524151876</v>
       </c>
       <c r="F22" t="n">
-        <v>0.200345545732071</v>
+        <v>0.1995844471525024</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003930029245180822</v>
+        <v>0.006905481649521281</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6392344497607656</v>
+        <v>0.6267409470752089</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6267942583732058</v>
+        <v>0.6267590979481223</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02439722255307554</v>
+        <v>0.02477047518382668</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3081180811808119</v>
+        <v>0.3057584508238491</v>
       </c>
       <c r="L22" t="n">
-        <v>0.303586542809283</v>
+        <v>0.3027224139294908</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006714992277595948</v>
+        <v>0.01032943209672056</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6454109616655015</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6426288852686277</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.01230073435613053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>log_class_r_sul</t>
+          <t>log_class_r_sudeste</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6673996701484332</v>
+        <v>0.6835962549698602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6628183304626935</v>
+        <v>0.6819289156428349</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006858605377795158</v>
+        <v>0.004936132350314781</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1773700305810398</v>
+        <v>0.2100221075902726</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1723814879959101</v>
+        <v>0.206393292831814</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01260397400419053</v>
+        <v>0.003520494955457406</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6338797814207651</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6192994161801501</v>
+        <v>0.6248320883811437</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0509533746229958</v>
+        <v>0.0228770530314605</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2771804062126643</v>
+        <v>0.3160521208760743</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2696890746535694</v>
+        <v>0.3102498258976775</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02025320124223231</v>
+        <v>0.006390666735037391</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6638766302605952</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6570713034544953</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.008180282391830378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>log_class_r_centro_oeste</t>
+          <t>log_class_r_sul</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6436438305021467</v>
+        <v>0.6649178832116789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6417737990718675</v>
+        <v>0.6658289207187226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01117268169340383</v>
+        <v>0.01036931872348174</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1887682869277961</v>
+        <v>0.1830106183635228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1822298575919777</v>
+        <v>0.18021315994845</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01322316380194962</v>
+        <v>0.01462537949308615</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6453744493392071</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6457627118644067</v>
+        <v>0.6275946275946275</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04654078039913892</v>
+        <v>0.05211830517805383</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2953119232189</v>
+        <v>0.2851581508515815</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2842410926808188</v>
+        <v>0.2800088698874753</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02055249904707023</v>
+        <v>0.02278006497242189</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.6562750109291455</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6489118176141077</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02805678756639948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dt_exp</t>
+          <t>log_class_r_centro_oeste</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6482939632545932</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6180628911913099</v>
+        <v>0.6442326784073551</v>
       </c>
       <c r="D25" t="n">
-        <v>0.006190537849057685</v>
+        <v>0.01755767850523273</v>
       </c>
       <c r="E25" t="n">
-        <v>0.171962521641715</v>
+        <v>0.1961141469338191</v>
       </c>
       <c r="F25" t="n">
-        <v>0.17183852029296</v>
+        <v>0.1890916344268603</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003326148097604932</v>
+        <v>0.01702566030284092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6994614747307374</v>
+        <v>0.6828752642706131</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6756412319376952</v>
+        <v>0.6534602463605823</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01674249521434987</v>
+        <v>0.05445100884558218</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2760565682988638</v>
+        <v>0.3047169811320755</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2739754016017139</v>
+        <v>0.2932619287323167</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005212347611898835</v>
+        <v>0.02569413270717711</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6633849156210516</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6482709558985649</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0320357962856587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>dt_exp</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.626703309286614</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6392709154226177</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01221422165811265</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.181577480490524</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1817171740587739</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.004979003275761278</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6682051282051282</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6366666666666667</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.03046430100570083</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2855577470962086</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2826415304805721</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.007717550279435343</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.644846312491324</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6381325464409446</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.01064653913383125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>rf_exp</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.6359800282785436</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6458335552226714</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.009488320005098774</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1791085890584541</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1801583509264083</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.003369596705106547</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.6733637116818558</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6532698269666055</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.01976858309836506</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.2829540014796118</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.2823795616756745</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.004879076337140581</v>
+      <c r="B27" t="n">
+        <v>0.6027997251803504</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6026562724910043</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01112494649773734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1792398224966236</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.177730303649854</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.004534178934243181</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7146153846153847</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7051282051282051</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01619652481779872</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2865957118617924</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2838651684379307</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.006338391243472547</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.651681242191683</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.6474530662527141</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.008082891583588448</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
@@ -725,25 +725,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6580212985228444</v>
+        <v>0.6579926714760105</v>
       </c>
       <c r="C6" t="n">
         <v>0.6589942443926067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009137454338725903</v>
+        <v>0.009068124681414892</v>
       </c>
       <c r="E6" t="n">
-        <v>0.192947641581438</v>
+        <v>0.1928860392336463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1928320153579969</v>
+        <v>0.1928303336857762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007182522813323696</v>
+        <v>0.007163578701580939</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6482051282051282</v>
+        <v>0.647948717948718</v>
       </c>
       <c r="I6" t="n">
         <v>0.6446153846153846</v>
@@ -752,22 +752,22 @@
         <v>0.02701936384065535</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2973767792024468</v>
+        <v>0.2972766307864244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2968212268118722</v>
+        <v>0.2968197459314154</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01088453327800463</v>
+        <v>0.01086837734671845</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6537300454121799</v>
+        <v>0.6536018402839749</v>
       </c>
       <c r="O6" t="n">
         <v>0.6527084005824921</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01355818519854207</v>
+        <v>0.01354743174035911</v>
       </c>
     </row>
     <row r="7">
@@ -777,25 +777,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6509809119830329</v>
+        <v>0.6509588193708024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6525497122825425</v>
+        <v>0.6526159886550158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007844253927179221</v>
+        <v>0.007746899931491852</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1833506523496132</v>
+        <v>0.1833035044166041</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1840004803508549</v>
+        <v>0.1840305737424639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005031212745780076</v>
+        <v>0.004991028202449576</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6578293289146645</v>
+        <v>0.6576222038111019</v>
       </c>
       <c r="I7" t="n">
         <v>0.6570049024340532</v>
@@ -804,22 +804,22 @@
         <v>0.01916047532542284</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2867720090293454</v>
+        <v>0.286694658901079</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2874622341511076</v>
+        <v>0.2874993469672502</v>
       </c>
       <c r="M7" t="n">
-        <v>0.007525341698532468</v>
+        <v>0.007480595057322747</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6539962749034693</v>
+        <v>0.6538927123516881</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6545114661250061</v>
+        <v>0.6545485626997557</v>
       </c>
       <c r="P7" t="n">
-        <v>0.009683012209825212</v>
+        <v>0.009643825894607794</v>
       </c>
     </row>
     <row r="8">
@@ -829,22 +829,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6527704135737009</v>
+        <v>0.6527483209614705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6542508448919578</v>
+        <v>0.6541403842711692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007679942723366113</v>
+        <v>0.007706481349815865</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1843219110569954</v>
+        <v>0.1843112244897959</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1848195455711642</v>
+        <v>0.1847661948929004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004762163878949726</v>
+        <v>0.004766417463952714</v>
       </c>
       <c r="H8" t="n">
         <v>0.6584507042253521</v>
@@ -856,22 +856,22 @@
         <v>0.01941340376229091</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2880181200453001</v>
+        <v>0.2880050733828592</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2884585794899029</v>
+        <v>0.2883934120039368</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007160435884993719</v>
+        <v>0.007162110424629433</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6552714496495243</v>
+        <v>0.6552590844304127</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6554633893506778</v>
+        <v>0.6554015632549682</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009307102349537832</v>
+        <v>0.009307095007076292</v>
       </c>
     </row>
     <row r="9">
@@ -881,49 +881,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.623869231650063</v>
+        <v>0.6415893736402153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6210923472412531</v>
+        <v>0.6386404287443808</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004959393685151945</v>
+        <v>0.00877482679191423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1827920071413857</v>
+        <v>0.1885838150289017</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1813444306194163</v>
+        <v>0.1868204389404011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004726703107562422</v>
+        <v>0.00529533616469915</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6825641025641026</v>
+        <v>0.6692307692307692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6812820512820512</v>
+        <v>0.6669230769230768</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02352275885370198</v>
+        <v>0.02288237078699806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2883605047933706</v>
+        <v>0.294250281848929</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2864307013666449</v>
+        <v>0.291843190867129</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007797580953615518</v>
+        <v>0.008074280600331423</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6495283776548278</v>
+        <v>0.6536731314573541</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6474050588053742</v>
+        <v>0.6510045482587272</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01103944836242542</v>
+        <v>0.01062930004420306</v>
       </c>
     </row>
     <row r="10">
@@ -933,49 +933,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6576205198671705</v>
+        <v>0.6574201305393336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6585648263957221</v>
+        <v>0.6583930747671711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00931600296780565</v>
+        <v>0.008791020344452588</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1925541653951785</v>
+        <v>0.1924513915364087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1930920835597753</v>
+        <v>0.192852410911758</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006998837338783589</v>
+        <v>0.006938299989315343</v>
       </c>
       <c r="H10" t="n">
         <v>0.6471794871794871</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6471794871794871</v>
+        <v>0.6464102564102564</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02567177643237707</v>
+        <v>0.02545315791534024</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2968015051740358</v>
+        <v>0.296679400528945</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2974004597454124</v>
+        <v>0.2970403587972042</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01049100981396637</v>
+        <v>0.01046870287223622</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6530561008983282</v>
+        <v>0.6529433140976064</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6535876340714235</v>
+        <v>0.6531546835630062</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01299810233440876</v>
+        <v>0.01298307511292331</v>
       </c>
     </row>
     <row r="11">
@@ -1040,19 +1040,19 @@
         <v>0.6517497072980356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6516193408127965</v>
+        <v>0.6515542790040783</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008313923935945294</v>
+        <v>0.008348164708974783</v>
       </c>
       <c r="E12" t="n">
         <v>0.1516270888302551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.149986572257851</v>
+        <v>0.149961287847496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004452123305573409</v>
+        <v>0.004493427459083526</v>
       </c>
       <c r="H12" t="n">
         <v>0.618808327351041</v>
@@ -1067,19 +1067,19 @@
         <v>0.2435716304040689</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2406970908421727</v>
+        <v>0.2406645366855023</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007095788482518461</v>
+        <v>0.007149463416398572</v>
       </c>
       <c r="N12" t="n">
         <v>0.6369200781308527</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6326438296858005</v>
+        <v>0.6326080643066874</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01011119788875779</v>
+        <v>0.01016789111197173</v>
       </c>
     </row>
     <row r="13">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6023591494645352</v>
+        <v>0.6015831134564644</v>
       </c>
       <c r="C17" t="n">
         <v>0.5995645186937729</v>
@@ -1306,7 +1306,7 @@
         <v>0.01786993409240115</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1564748201438849</v>
+        <v>0.1561938958707361</v>
       </c>
       <c r="F17" t="n">
         <v>0.1539199920922654</v>
@@ -1324,7 +1324,7 @@
         <v>0.04593905605688789</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2534965034965035</v>
+        <v>0.2531277276694792</v>
       </c>
       <c r="L17" t="n">
         <v>0.2493361922201726</v>
@@ -1333,7 +1333,7 @@
         <v>0.007258119685379448</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6311196080654029</v>
+        <v>0.6306879036965547</v>
       </c>
       <c r="O17" t="n">
         <v>0.6254400672430388</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6534411719822982</v>
+        <v>0.6535937738440409</v>
       </c>
       <c r="C21" t="n">
         <v>0.6531381557112164</v>
@@ -1514,7 +1514,7 @@
         <v>0.01795239729905977</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1707810602994739</v>
+        <v>0.1708502024291498</v>
       </c>
       <c r="F21" t="n">
         <v>0.1695446669069019</v>
@@ -1532,7 +1532,7 @@
         <v>0.04682880613518705</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2709470304975923</v>
+        <v>0.271034039820167</v>
       </c>
       <c r="L21" t="n">
         <v>0.2685948061190908</v>
@@ -1541,7 +1541,7 @@
         <v>0.01861946830131424</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6542601610975572</v>
+        <v>0.6543447777839678</v>
       </c>
       <c r="O21" t="n">
         <v>0.6506598946610712</v>
@@ -1557,25 +1557,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6596152244524027</v>
+        <v>0.6595319397018405</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6546998007005824</v>
+        <v>0.6547830646472935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008131786073215914</v>
+        <v>0.008316448542932573</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2022017524151876</v>
+        <v>0.2020224719101124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1995844471525024</v>
+        <v>0.1996340740909303</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006905481649521281</v>
+        <v>0.007067378239773102</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6267409470752089</v>
+        <v>0.6260445682451253</v>
       </c>
       <c r="I22" t="n">
         <v>0.6267590979481223</v>
@@ -1584,22 +1584,22 @@
         <v>0.02477047518382668</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3057584508238491</v>
+        <v>0.3054706082229018</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3027224139294908</v>
+        <v>0.3027795804075785</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01032943209672056</v>
+        <v>0.01051749000355718</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6454109616655015</v>
+        <v>0.6450627722504598</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6426288852686277</v>
+        <v>0.6426761442266942</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01230073435613053</v>
+        <v>0.01246509873020882</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6835962549698602</v>
+        <v>0.6834680005130178</v>
       </c>
       <c r="C23" t="n">
         <v>0.6819289156428349</v>
@@ -1618,7 +1618,7 @@
         <v>0.004936132350314781</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2100221075902726</v>
+        <v>0.2099447513812155</v>
       </c>
       <c r="F23" t="n">
         <v>0.206393292831814</v>
@@ -1636,7 +1636,7 @@
         <v>0.0228770530314605</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3160521208760743</v>
+        <v>0.3159645232815964</v>
       </c>
       <c r="L23" t="n">
         <v>0.3102498258976775</v>
@@ -1645,7 +1645,7 @@
         <v>0.006390666735037391</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6638766302605952</v>
+        <v>0.6638042084761224</v>
       </c>
       <c r="O23" t="n">
         <v>0.6570713034544953</v>
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6649178832116789</v>
+        <v>0.6646897810218978</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6658289207187226</v>
+        <v>0.6653728203766472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01036931872348174</v>
+        <v>0.009681022000855258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1830106183635228</v>
+        <v>0.182896379525593</v>
       </c>
       <c r="F24" t="n">
-        <v>0.18021315994845</v>
+        <v>0.1799600160647329</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01462537949308615</v>
+        <v>0.01431046136318765</v>
       </c>
       <c r="H24" t="n">
         <v>0.6453744493392071</v>
@@ -1688,22 +1688,22 @@
         <v>0.05211830517805383</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2851581508515815</v>
+        <v>0.2850194552529183</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2800088698874753</v>
+        <v>0.2797049762502483</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02278006497242189</v>
+        <v>0.02241595691260664</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6562750109291455</v>
+        <v>0.6561477844660412</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6489118176141077</v>
+        <v>0.648657364687899</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02805678756639948</v>
+        <v>0.02776317239831637</v>
       </c>
     </row>
     <row r="25">
@@ -1765,49 +1765,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.626703309286614</v>
+        <v>0.6264456658651093</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6392709154226177</v>
+        <v>0.6307397718825986</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01221422165811265</v>
+        <v>0.00797425324314611</v>
       </c>
       <c r="E26" t="n">
-        <v>0.181577480490524</v>
+        <v>0.1814636863728153</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1817171740587739</v>
+        <v>0.1811430265738616</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004979003275761278</v>
+        <v>0.004114947950153339</v>
       </c>
       <c r="H26" t="n">
         <v>0.6682051282051282</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6366666666666667</v>
+        <v>0.6553846153846153</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03046430100570083</v>
+        <v>0.02260776661041757</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2855577470962086</v>
+        <v>0.2854170089261267</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2826415304805721</v>
+        <v>0.2838001624225816</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007717550279435343</v>
+        <v>0.006541186530918769</v>
       </c>
       <c r="N26" t="n">
-        <v>0.644846312491324</v>
+        <v>0.644701300890396</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6381325464409446</v>
+        <v>0.6415135830490373</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01064653913383125</v>
+        <v>0.009028001722758468</v>
       </c>
     </row>
     <row r="27">
@@ -1817,49 +1817,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6027997251803504</v>
+        <v>0.5980762624527654</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6026562724910043</v>
+        <v>0.6009960053825372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01112494649773734</v>
+        <v>0.013296488608787</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1792398224966236</v>
+        <v>0.1771934292627022</v>
       </c>
       <c r="F27" t="n">
-        <v>0.177730303649854</v>
+        <v>0.1762726431973381</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004534178934243181</v>
+        <v>0.004115429118951222</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7146153846153847</v>
+        <v>0.7135897435897436</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7051282051282051</v>
+        <v>0.7002564102564103</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01619652481779872</v>
+        <v>0.02386682313481048</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2865957118617924</v>
+        <v>0.2838926859124757</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2838651684379307</v>
+        <v>0.2815787756193535</v>
       </c>
       <c r="M27" t="n">
-        <v>0.006338391243472547</v>
+        <v>0.005842553675592371</v>
       </c>
       <c r="N27" t="n">
-        <v>0.651681242191683</v>
+        <v>0.6485743252622603</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6474530662527141</v>
+        <v>0.6443888771076597</v>
       </c>
       <c r="P27" t="n">
-        <v>0.008082891583588448</v>
+        <v>0.008279314525923885</v>
       </c>
     </row>
   </sheetData>

--- a/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
+++ b/DAGroup/notebooks/generated_data/pns_data_models/metrics.xlsx
@@ -624,46 +624,46 @@
         <v>0.6949284850926672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.697371016033941</v>
+        <v>0.6973961954371891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002406009751978343</v>
+        <v>0.002415453808247368</v>
       </c>
       <c r="E4" t="n">
         <v>0.184320471860408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1856903554697311</v>
+        <v>0.1857577118104822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002114266392673494</v>
+        <v>0.002138963783270253</v>
       </c>
       <c r="H4" t="n">
         <v>0.5104355716878403</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5099853032397219</v>
+        <v>0.5102120606093364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008764880255527858</v>
+        <v>0.008782256016437871</v>
       </c>
       <c r="K4" t="n">
         <v>0.2708396027685826</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2722446221612094</v>
+        <v>0.2723493537905477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003325883252767455</v>
+        <v>0.003355361697686016</v>
       </c>
       <c r="N4" t="n">
         <v>0.6141997708881078</v>
       </c>
       <c r="O4" t="n">
-        <v>0.615376682643723</v>
+        <v>0.6154900613285303</v>
       </c>
       <c r="P4" t="n">
-        <v>0.003747695069745473</v>
+        <v>0.003772045744370067</v>
       </c>
     </row>
     <row r="5">
